--- a/Excel_Data/Air_India_Data.xlsx
+++ b/Excel_Data/Air_India_Data.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="16275" windowHeight="4695"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="16275" windowHeight="4695" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sign_Up_Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Flight_Status" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Password</t>
   </si>
@@ -61,6 +61,90 @@
   </si>
   <si>
     <t>!@#$%^^&amp;</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>New_Password</t>
+  </si>
+  <si>
+    <t>Confirm_Password</t>
+  </si>
+  <si>
+    <t>Given_Name</t>
+  </si>
+  <si>
+    <t>Surname</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Akashsaha17051997</t>
+  </si>
+  <si>
+    <t>Akash@1997</t>
+  </si>
+  <si>
+    <t>Akash</t>
+  </si>
+  <si>
+    <t>Saha</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>22222</t>
+  </si>
+  <si>
+    <t>55555</t>
+  </si>
+  <si>
+    <t>!@#!@#$%^&amp;*()_+</t>
+  </si>
+  <si>
+    <t>Not_Same</t>
+  </si>
+  <si>
+    <t>Flight_Number</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>November 2022</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>December 2022</t>
+  </si>
+  <si>
+    <t>From_MMYY</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
 </sst>
 </file>
@@ -96,13 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,7 +494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -503,24 +590,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="10.140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55555</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel_Data/Air_India_Data.xlsx
+++ b/Excel_Data/Air_India_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UIPL\git\Air_india_Test\Excel_Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88D1287-D9B9-4BC7-BE3E-6386DE399D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="16275" windowHeight="4695" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_sheet" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Password</t>
   </si>
@@ -40,27 +46,6 @@
   </si>
   <si>
     <t>Akash@199</t>
-  </si>
-  <si>
-    <t>Akash@1997010</t>
-  </si>
-  <si>
-    <t>Akash@19975417425</t>
-  </si>
-  <si>
-    <t>Akash@1997412412</t>
-  </si>
-  <si>
-    <t>Akashsaha1714505@gmail.com</t>
-  </si>
-  <si>
-    <t>Akashsaha174705@gmail.com</t>
-  </si>
-  <si>
-    <t>Akashsaha1705424@gmail.com</t>
-  </si>
-  <si>
-    <t>!@#$%^^&amp;</t>
   </si>
   <si>
     <t>Email</t>
@@ -150,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -201,14 +186,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -246,7 +234,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -318,7 +306,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,21 +479,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -516,7 +504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -525,61 +513,6 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>4124</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2">
-        <v>4141</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -589,54 +522,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="3" customWidth="1"/>
-    <col min="5" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="10.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="34.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
+    <col min="5" max="8" width="9.109375" style="3"/>
+    <col min="9" max="9" width="10.109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -647,77 +580,77 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>55555</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>6</v>
@@ -730,58 +663,58 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="17.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
